--- a/EJBComponents/ImageProcessingBenchmark_2/stats/PowerConsumption/PowerConsumption.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark_2/stats/PowerConsumption/PowerConsumption.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\CourseWork\GitHubRepositories\CloudComputingComponents\CloudComputingComponents\EJBComponents\ImageProcessingBenchmark_2\stats\PowerConsumption\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -202,7 +197,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -255,26 +250,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1444,11 +1419,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1973614032"/>
-        <c:axId val="1973608048"/>
+        <c:axId val="103867136"/>
+        <c:axId val="103869440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1973614032"/>
+        <c:axId val="103867136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,26 +1502,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1584,7 +1539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1973608048"/>
+        <c:crossAx val="103869440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1592,7 +1547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1973608048"/>
+        <c:axId val="103869440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1672,26 +1627,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -1726,7 +1661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1973614032"/>
+        <c:crossAx val="103867136"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1819,7 +1754,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1872,26 +1807,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3055,11 +2970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1973611312"/>
-        <c:axId val="1973611856"/>
+        <c:axId val="110590976"/>
+        <c:axId val="110597632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1973611312"/>
+        <c:axId val="110590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3138,26 +3053,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -3195,7 +3090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1973611856"/>
+        <c:crossAx val="110597632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3203,7 +3098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1973611856"/>
+        <c:axId val="110597632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -3278,26 +3173,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -3332,7 +3207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1973611312"/>
+        <c:crossAx val="110590976"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3354,6 +3229,1555 @@
           <c:y val="4.3060751089764676E-2"/>
           <c:w val="0.4741814774638437"/>
           <c:h val="0.14956616070483245"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1"/>
+              <a:t>Average Power Consumption per Second</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33357513358197255"/>
+          <c:y val="1.4381100290056601E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2939561197475874E-2"/>
+          <c:y val="4.5542340167375628E-2"/>
+          <c:w val="0.91258559165018105"/>
+          <c:h val="0.89091414539745339"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OneThread_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$AH$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OneThread_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$AH$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TwoThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>TwoThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>ThreeThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>ThreeThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>FourThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>FourThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>FiveThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>FiveThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>SixThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>SixThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>SevenThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>SevenThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>EightThreads_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:v>EightThreads_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="127903616"/>
+        <c:axId val="127922560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="127903616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t> of Sub-Images</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4031272876314449"/>
+              <c:y val="0.96759938104650245"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="127922560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="127922560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Power Consumption (Watts)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.4837066245255614E-4"/>
+              <c:y val="0.37362608120112761"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="127903616"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50830074613116261"/>
+          <c:y val="4.3060751089764676E-2"/>
+          <c:w val="0.4741814774638437"/>
+          <c:h val="0.10354663977665132"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4598,6 +6022,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>358671</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4856,7 +6312,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4866,8 +6322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AP106" sqref="AP106"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5157,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="AM4" s="7">
-        <f t="shared" ref="AM4:AT4" si="1">$N6/O6</f>
+        <f t="shared" ref="AM4:AS4" si="1">$N6/O6</f>
         <v>1.3079584775086506</v>
       </c>
       <c r="AN4" s="7">
